--- a/data/auffrischen_kw.xlsx
+++ b/data/auffrischen_kw.xlsx
@@ -444,13 +444,13 @@
         <v>561123</v>
       </c>
       <c r="C2" t="n">
-        <v>238433</v>
+        <v>262722</v>
       </c>
       <c r="D2" t="n">
-        <v>-322690</v>
+        <v>-298401</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.575078904268761</v>
+        <v>-0.531792494693677</v>
       </c>
     </row>
     <row r="3">
@@ -461,13 +461,13 @@
         <v>749965</v>
       </c>
       <c r="C3" t="n">
-        <v>243642</v>
+        <v>281982</v>
       </c>
       <c r="D3" t="n">
-        <v>-506323</v>
+        <v>-467983</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.675128839345836</v>
+        <v>-0.624006453634503</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         <v>219662</v>
       </c>
       <c r="C4" t="n">
-        <v>131574</v>
+        <v>146723</v>
       </c>
       <c r="D4" t="n">
-        <v>-88088</v>
+        <v>-72939</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.401016106563721</v>
+        <v>-0.332051060265317</v>
       </c>
     </row>
     <row r="5">
@@ -495,13 +495,13 @@
         <v>104602</v>
       </c>
       <c r="C5" t="n">
-        <v>29966</v>
+        <v>35606</v>
       </c>
       <c r="D5" t="n">
-        <v>-74636</v>
+        <v>-68996</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.713523641995373</v>
+        <v>-0.659604978872297</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>37298</v>
       </c>
       <c r="C6" t="n">
-        <v>20518</v>
+        <v>22794</v>
       </c>
       <c r="D6" t="n">
-        <v>-16780</v>
+        <v>-14504</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.449890074534828</v>
+        <v>-0.388868035819615</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>4334170</v>
       </c>
       <c r="C7" t="n">
-        <v>1697713</v>
+        <v>1932647</v>
       </c>
       <c r="D7" t="n">
-        <v>-2636457</v>
+        <v>-2401523</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.608295705982922</v>
+        <v>-0.554090633270038</v>
       </c>
     </row>
     <row r="8">
@@ -546,13 +546,13 @@
         <v>94353</v>
       </c>
       <c r="C8" t="n">
-        <v>33092</v>
+        <v>38471</v>
       </c>
       <c r="D8" t="n">
-        <v>-61261</v>
+        <v>-55882</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.649274532871239</v>
+        <v>-0.592265216792259</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         <v>347698</v>
       </c>
       <c r="C9" t="n">
-        <v>119231</v>
+        <v>137085</v>
       </c>
       <c r="D9" t="n">
-        <v>-228467</v>
+        <v>-210613</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.657084596402625</v>
+        <v>-0.605735437074703</v>
       </c>
     </row>
     <row r="10">
@@ -580,13 +580,13 @@
         <v>78222</v>
       </c>
       <c r="C10" t="n">
-        <v>24634</v>
+        <v>28782</v>
       </c>
       <c r="D10" t="n">
-        <v>-53588</v>
+        <v>-49440</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.68507580987446</v>
+        <v>-0.632047250134233</v>
       </c>
     </row>
     <row r="11">
@@ -597,13 +597,13 @@
         <v>422360</v>
       </c>
       <c r="C11" t="n">
-        <v>117901</v>
+        <v>141410</v>
       </c>
       <c r="D11" t="n">
-        <v>-304459</v>
+        <v>-280950</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.720851879912871</v>
+        <v>-0.665190832465196</v>
       </c>
     </row>
     <row r="12">
@@ -614,13 +614,13 @@
         <v>874021</v>
       </c>
       <c r="C12" t="n">
-        <v>411858</v>
+        <v>469863</v>
       </c>
       <c r="D12" t="n">
-        <v>-462163</v>
+        <v>-404158</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.528777912658849</v>
+        <v>-0.462412230369751</v>
       </c>
     </row>
     <row r="13">
@@ -631,13 +631,13 @@
         <v>184405</v>
       </c>
       <c r="C13" t="n">
-        <v>90830</v>
+        <v>102157</v>
       </c>
       <c r="D13" t="n">
-        <v>-93575</v>
+        <v>-82248</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.507442856755511</v>
+        <v>-0.446018274992544</v>
       </c>
     </row>
     <row r="14">
@@ -648,13 +648,13 @@
         <v>50294</v>
       </c>
       <c r="C14" t="n">
-        <v>19325</v>
+        <v>21670</v>
       </c>
       <c r="D14" t="n">
-        <v>-30969</v>
+        <v>-28624</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.615759335109556</v>
+        <v>-0.569133495049111</v>
       </c>
     </row>
     <row r="15">
@@ -665,13 +665,13 @@
         <v>260102</v>
       </c>
       <c r="C15" t="n">
-        <v>42192</v>
+        <v>48277</v>
       </c>
       <c r="D15" t="n">
-        <v>-217910</v>
+        <v>-211825</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.837786714442796</v>
+        <v>-0.814392046197261</v>
       </c>
     </row>
     <row r="16">
@@ -682,13 +682,13 @@
         <v>103549</v>
       </c>
       <c r="C16" t="n">
-        <v>39953</v>
+        <v>42829</v>
       </c>
       <c r="D16" t="n">
-        <v>-63596</v>
+        <v>-60720</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.614163342958406</v>
+        <v>-0.586389052525857</v>
       </c>
     </row>
     <row r="17">
@@ -699,13 +699,13 @@
         <v>118642</v>
       </c>
       <c r="C17" t="n">
-        <v>90630</v>
+        <v>102717</v>
       </c>
       <c r="D17" t="n">
-        <v>-28012</v>
+        <v>-15925</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.236105257834494</v>
+        <v>-0.134227339390772</v>
       </c>
     </row>
     <row r="18">
@@ -716,13 +716,13 @@
         <v>127854</v>
       </c>
       <c r="C18" t="n">
-        <v>43419</v>
+        <v>48935</v>
       </c>
       <c r="D18" t="n">
-        <v>-84435</v>
+        <v>-78919</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.660401708198414</v>
+        <v>-0.617258748259734</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +767,10 @@
         <v>100157</v>
       </c>
       <c r="D2" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E2" t="n">
-        <v>153939</v>
+        <v>149891</v>
       </c>
     </row>
     <row r="3">
@@ -784,10 +784,10 @@
         <v>67154</v>
       </c>
       <c r="D3" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E3" t="n">
-        <v>120936</v>
+        <v>116888</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         <v>44833</v>
       </c>
       <c r="D4" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E4" t="n">
-        <v>98615</v>
+        <v>94567</v>
       </c>
     </row>
     <row r="5">
@@ -818,10 +818,10 @@
         <v>80561</v>
       </c>
       <c r="D5" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E5" t="n">
-        <v>134343</v>
+        <v>130295</v>
       </c>
     </row>
     <row r="6">
@@ -835,10 +835,10 @@
         <v>140468</v>
       </c>
       <c r="D6" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E6" t="n">
-        <v>194250</v>
+        <v>190202</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +852,10 @@
         <v>246045</v>
       </c>
       <c r="D7" t="n">
-        <v>53782</v>
+        <v>49734</v>
       </c>
       <c r="E7" t="n">
-        <v>299827</v>
+        <v>295779</v>
       </c>
     </row>
     <row r="8">
@@ -869,10 +869,10 @@
         <v>104167</v>
       </c>
       <c r="D8" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E8" t="n">
-        <v>188554</v>
+        <v>182164</v>
       </c>
     </row>
     <row r="9">
@@ -886,10 +886,10 @@
         <v>30643</v>
       </c>
       <c r="D9" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E9" t="n">
-        <v>115030</v>
+        <v>108640</v>
       </c>
     </row>
     <row r="10">
@@ -903,10 +903,10 @@
         <v>22281</v>
       </c>
       <c r="D10" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E10" t="n">
-        <v>106668</v>
+        <v>100278</v>
       </c>
     </row>
     <row r="11">
@@ -920,10 +920,10 @@
         <v>74454</v>
       </c>
       <c r="D11" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E11" t="n">
-        <v>158841</v>
+        <v>152451</v>
       </c>
     </row>
     <row r="12">
@@ -937,10 +937,10 @@
         <v>193850</v>
       </c>
       <c r="D12" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E12" t="n">
-        <v>278237</v>
+        <v>271847</v>
       </c>
     </row>
     <row r="13">
@@ -954,10 +954,10 @@
         <v>202461</v>
       </c>
       <c r="D13" t="n">
-        <v>84387</v>
+        <v>77997</v>
       </c>
       <c r="E13" t="n">
-        <v>286848</v>
+        <v>280458</v>
       </c>
     </row>
     <row r="14">
@@ -971,10 +971,10 @@
         <v>45869</v>
       </c>
       <c r="D14" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E14" t="n">
-        <v>60550</v>
+        <v>58025</v>
       </c>
     </row>
     <row r="15">
@@ -988,10 +988,10 @@
         <v>26475</v>
       </c>
       <c r="D15" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E15" t="n">
-        <v>41156</v>
+        <v>38631</v>
       </c>
     </row>
     <row r="16">
@@ -1005,10 +1005,10 @@
         <v>27953</v>
       </c>
       <c r="D16" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E16" t="n">
-        <v>42634</v>
+        <v>40109</v>
       </c>
     </row>
     <row r="17">
@@ -1022,10 +1022,10 @@
         <v>35948</v>
       </c>
       <c r="D17" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E17" t="n">
-        <v>50629</v>
+        <v>48104</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>51042</v>
       </c>
       <c r="D18" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E18" t="n">
-        <v>65723</v>
+        <v>63198</v>
       </c>
     </row>
     <row r="19">
@@ -1056,10 +1056,10 @@
         <v>57324</v>
       </c>
       <c r="D19" t="n">
-        <v>14681</v>
+        <v>12156</v>
       </c>
       <c r="E19" t="n">
-        <v>72005</v>
+        <v>69480</v>
       </c>
     </row>
     <row r="20">
@@ -1073,10 +1073,10 @@
         <v>31320</v>
       </c>
       <c r="D20" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E20" t="n">
-        <v>43759</v>
+        <v>42819</v>
       </c>
     </row>
     <row r="21">
@@ -1090,10 +1090,10 @@
         <v>28488</v>
       </c>
       <c r="D21" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E21" t="n">
-        <v>40927</v>
+        <v>39987</v>
       </c>
     </row>
     <row r="22">
@@ -1107,10 +1107,10 @@
         <v>11864</v>
       </c>
       <c r="D22" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E22" t="n">
-        <v>24303</v>
+        <v>23363</v>
       </c>
     </row>
     <row r="23">
@@ -1124,10 +1124,10 @@
         <v>10829</v>
       </c>
       <c r="D23" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E23" t="n">
-        <v>23268</v>
+        <v>22328</v>
       </c>
     </row>
     <row r="24">
@@ -1141,10 +1141,10 @@
         <v>54614</v>
       </c>
       <c r="D24" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E24" t="n">
-        <v>67053</v>
+        <v>66113</v>
       </c>
     </row>
     <row r="25">
@@ -1158,10 +1158,10 @@
         <v>60042</v>
       </c>
       <c r="D25" t="n">
-        <v>12439</v>
+        <v>11499</v>
       </c>
       <c r="E25" t="n">
-        <v>72481</v>
+        <v>71541</v>
       </c>
     </row>
     <row r="26">
@@ -1175,10 +1175,10 @@
         <v>4869</v>
       </c>
       <c r="D26" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E26" t="n">
-        <v>7666</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="27">
@@ -1192,10 +1192,10 @@
         <v>6063</v>
       </c>
       <c r="D27" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E27" t="n">
-        <v>8860</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="28">
@@ -1209,10 +1209,10 @@
         <v>5780</v>
       </c>
       <c r="D28" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E28" t="n">
-        <v>8577</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="29">
@@ -1226,10 +1226,10 @@
         <v>11127</v>
       </c>
       <c r="D29" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E29" t="n">
-        <v>13924</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="30">
@@ -1243,10 +1243,10 @@
         <v>17563</v>
       </c>
       <c r="D30" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E30" t="n">
-        <v>20360</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="31">
@@ -1260,10 +1260,10 @@
         <v>16776</v>
       </c>
       <c r="D31" t="n">
-        <v>2797</v>
+        <v>2417</v>
       </c>
       <c r="E31" t="n">
-        <v>19573</v>
+        <v>19193</v>
       </c>
     </row>
     <row r="32">
@@ -1277,10 +1277,10 @@
         <v>701025</v>
       </c>
       <c r="D32" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E32" t="n">
-        <v>1140435</v>
+        <v>1101279</v>
       </c>
     </row>
     <row r="33">
@@ -1294,10 +1294,10 @@
         <v>482087</v>
       </c>
       <c r="D33" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E33" t="n">
-        <v>921497</v>
+        <v>882341</v>
       </c>
     </row>
     <row r="34">
@@ -1311,10 +1311,10 @@
         <v>442961</v>
       </c>
       <c r="D34" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E34" t="n">
-        <v>882371</v>
+        <v>843215</v>
       </c>
     </row>
     <row r="35">
@@ -1328,10 +1328,10 @@
         <v>695623</v>
       </c>
       <c r="D35" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E35" t="n">
-        <v>1135033</v>
+        <v>1095877</v>
       </c>
     </row>
     <row r="36">
@@ -1345,10 +1345,10 @@
         <v>1157515</v>
       </c>
       <c r="D36" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E36" t="n">
-        <v>1596925</v>
+        <v>1557769</v>
       </c>
     </row>
     <row r="37">
@@ -1362,10 +1362,10 @@
         <v>1518779</v>
       </c>
       <c r="D37" t="n">
-        <v>439410</v>
+        <v>400254</v>
       </c>
       <c r="E37" t="n">
-        <v>1958189</v>
+        <v>1919033</v>
       </c>
     </row>
     <row r="38">
@@ -1379,10 +1379,10 @@
         <v>11420</v>
       </c>
       <c r="D38" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E38" t="n">
-        <v>21630</v>
+        <v>20734</v>
       </c>
     </row>
     <row r="39">
@@ -1396,10 +1396,10 @@
         <v>1571</v>
       </c>
       <c r="D39" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E39" t="n">
-        <v>11781</v>
+        <v>10885</v>
       </c>
     </row>
     <row r="40">
@@ -1413,10 +1413,10 @@
         <v>4157</v>
       </c>
       <c r="D40" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E40" t="n">
-        <v>14367</v>
+        <v>13471</v>
       </c>
     </row>
     <row r="41">
@@ -1430,10 +1430,10 @@
         <v>20475</v>
       </c>
       <c r="D41" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E41" t="n">
-        <v>30685</v>
+        <v>29789</v>
       </c>
     </row>
     <row r="42">
@@ -1447,10 +1447,10 @@
         <v>28899</v>
       </c>
       <c r="D42" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E42" t="n">
-        <v>39109</v>
+        <v>38213</v>
       </c>
     </row>
     <row r="43">
@@ -1464,10 +1464,10 @@
         <v>28249</v>
       </c>
       <c r="D43" t="n">
-        <v>10210</v>
+        <v>9314</v>
       </c>
       <c r="E43" t="n">
-        <v>38459</v>
+        <v>37563</v>
       </c>
     </row>
     <row r="44">
@@ -1481,10 +1481,10 @@
         <v>63422</v>
       </c>
       <c r="D44" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E44" t="n">
-        <v>101500</v>
+        <v>98524</v>
       </c>
     </row>
     <row r="45">
@@ -1498,10 +1498,10 @@
         <v>39470</v>
       </c>
       <c r="D45" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E45" t="n">
-        <v>77548</v>
+        <v>74572</v>
       </c>
     </row>
     <row r="46">
@@ -1515,10 +1515,10 @@
         <v>16578</v>
       </c>
       <c r="D46" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E46" t="n">
-        <v>54656</v>
+        <v>51680</v>
       </c>
     </row>
     <row r="47">
@@ -1532,10 +1532,10 @@
         <v>25078</v>
       </c>
       <c r="D47" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E47" t="n">
-        <v>63156</v>
+        <v>60180</v>
       </c>
     </row>
     <row r="48">
@@ -1549,10 +1549,10 @@
         <v>42504</v>
       </c>
       <c r="D48" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E48" t="n">
-        <v>80582</v>
+        <v>77606</v>
       </c>
     </row>
     <row r="49">
@@ -1566,10 +1566,10 @@
         <v>104312</v>
       </c>
       <c r="D49" t="n">
-        <v>38078</v>
+        <v>35102</v>
       </c>
       <c r="E49" t="n">
-        <v>142390</v>
+        <v>139414</v>
       </c>
     </row>
     <row r="50">
@@ -1583,10 +1583,10 @@
         <v>11866</v>
       </c>
       <c r="D50" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E50" t="n">
-        <v>20797</v>
+        <v>20106</v>
       </c>
     </row>
     <row r="51">
@@ -1600,10 +1600,10 @@
         <v>9928</v>
       </c>
       <c r="D51" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E51" t="n">
-        <v>18859</v>
+        <v>18168</v>
       </c>
     </row>
     <row r="52">
@@ -1617,10 +1617,10 @@
         <v>5361</v>
       </c>
       <c r="D52" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E52" t="n">
-        <v>14292</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="53">
@@ -1634,10 +1634,10 @@
         <v>6817</v>
       </c>
       <c r="D53" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E53" t="n">
-        <v>15748</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="54">
@@ -1651,10 +1651,10 @@
         <v>26802</v>
       </c>
       <c r="D54" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E54" t="n">
-        <v>35733</v>
+        <v>35042</v>
       </c>
     </row>
     <row r="55">
@@ -1668,10 +1668,10 @@
         <v>29119</v>
       </c>
       <c r="D55" t="n">
-        <v>8931</v>
+        <v>8240</v>
       </c>
       <c r="E55" t="n">
-        <v>38050</v>
+        <v>37359</v>
       </c>
     </row>
     <row r="56">
@@ -1685,10 +1685,10 @@
         <v>46262</v>
       </c>
       <c r="D56" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E56" t="n">
-        <v>97005</v>
+        <v>93087</v>
       </c>
     </row>
     <row r="57">
@@ -1702,10 +1702,10 @@
         <v>34312</v>
       </c>
       <c r="D57" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E57" t="n">
-        <v>85055</v>
+        <v>81137</v>
       </c>
     </row>
     <row r="58">
@@ -1719,10 +1719,10 @@
         <v>20063</v>
       </c>
       <c r="D58" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E58" t="n">
-        <v>70806</v>
+        <v>66888</v>
       </c>
     </row>
     <row r="59">
@@ -1736,10 +1736,10 @@
         <v>45360</v>
       </c>
       <c r="D59" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E59" t="n">
-        <v>96103</v>
+        <v>92185</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>81198</v>
       </c>
       <c r="D60" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E60" t="n">
-        <v>131941</v>
+        <v>128023</v>
       </c>
     </row>
     <row r="61">
@@ -1770,10 +1770,10 @@
         <v>118003</v>
       </c>
       <c r="D61" t="n">
-        <v>50743</v>
+        <v>46825</v>
       </c>
       <c r="E61" t="n">
-        <v>168746</v>
+        <v>164828</v>
       </c>
     </row>
     <row r="62">
@@ -1787,10 +1787,10 @@
         <v>165390</v>
       </c>
       <c r="D62" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E62" t="n">
-        <v>242417</v>
+        <v>232750</v>
       </c>
     </row>
     <row r="63">
@@ -1804,10 +1804,10 @@
         <v>118913</v>
       </c>
       <c r="D63" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E63" t="n">
-        <v>195940</v>
+        <v>186273</v>
       </c>
     </row>
     <row r="64">
@@ -1821,10 +1821,10 @@
         <v>102022</v>
       </c>
       <c r="D64" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E64" t="n">
-        <v>179049</v>
+        <v>169382</v>
       </c>
     </row>
     <row r="65">
@@ -1838,10 +1838,10 @@
         <v>113019</v>
       </c>
       <c r="D65" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E65" t="n">
-        <v>190046</v>
+        <v>180379</v>
       </c>
     </row>
     <row r="66">
@@ -1855,10 +1855,10 @@
         <v>163559</v>
       </c>
       <c r="D66" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E66" t="n">
-        <v>240586</v>
+        <v>230919</v>
       </c>
     </row>
     <row r="67">
@@ -1872,10 +1872,10 @@
         <v>316879</v>
       </c>
       <c r="D67" t="n">
-        <v>77027</v>
+        <v>67360</v>
       </c>
       <c r="E67" t="n">
-        <v>393906</v>
+        <v>384239</v>
       </c>
     </row>
     <row r="68">
@@ -1889,10 +1889,10 @@
         <v>21861</v>
       </c>
       <c r="D68" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E68" t="n">
-        <v>37457</v>
+        <v>35569</v>
       </c>
     </row>
     <row r="69">
@@ -1906,10 +1906,10 @@
         <v>40236</v>
       </c>
       <c r="D69" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E69" t="n">
-        <v>55832</v>
+        <v>53944</v>
       </c>
     </row>
     <row r="70">
@@ -1923,10 +1923,10 @@
         <v>42077</v>
       </c>
       <c r="D70" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E70" t="n">
-        <v>57673</v>
+        <v>55785</v>
       </c>
     </row>
     <row r="71">
@@ -1940,10 +1940,10 @@
         <v>65424</v>
       </c>
       <c r="D71" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E71" t="n">
-        <v>81020</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="72">
@@ -1957,10 +1957,10 @@
         <v>97337</v>
       </c>
       <c r="D72" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E72" t="n">
-        <v>112933</v>
+        <v>111045</v>
       </c>
     </row>
     <row r="73">
@@ -1974,10 +1974,10 @@
         <v>75170</v>
       </c>
       <c r="D73" t="n">
-        <v>15596</v>
+        <v>13708</v>
       </c>
       <c r="E73" t="n">
-        <v>90766</v>
+        <v>88878</v>
       </c>
     </row>
     <row r="74">
@@ -1991,10 +1991,10 @@
         <v>9479</v>
       </c>
       <c r="D74" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E74" t="n">
-        <v>14641</v>
+        <v>14250</v>
       </c>
     </row>
     <row r="75">
@@ -2008,10 +2008,10 @@
         <v>11915</v>
       </c>
       <c r="D75" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E75" t="n">
-        <v>17077</v>
+        <v>16686</v>
       </c>
     </row>
     <row r="76">
@@ -2025,10 +2025,10 @@
         <v>8050</v>
       </c>
       <c r="D76" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E76" t="n">
-        <v>13212</v>
+        <v>12821</v>
       </c>
     </row>
     <row r="77">
@@ -2042,10 +2042,10 @@
         <v>7450</v>
       </c>
       <c r="D77" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E77" t="n">
-        <v>12612</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="78">
@@ -2059,10 +2059,10 @@
         <v>8346</v>
       </c>
       <c r="D78" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E78" t="n">
-        <v>13508</v>
+        <v>13117</v>
       </c>
     </row>
     <row r="79">
@@ -2076,10 +2076,10 @@
         <v>18740</v>
       </c>
       <c r="D79" t="n">
-        <v>5162</v>
+        <v>4771</v>
       </c>
       <c r="E79" t="n">
-        <v>23902</v>
+        <v>23511</v>
       </c>
     </row>
     <row r="80">
@@ -2093,10 +2093,10 @@
         <v>23562</v>
       </c>
       <c r="D80" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E80" t="n">
-        <v>59880</v>
+        <v>58866</v>
       </c>
     </row>
     <row r="81">
@@ -2110,10 +2110,10 @@
         <v>13040</v>
       </c>
       <c r="D81" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E81" t="n">
-        <v>49358</v>
+        <v>48344</v>
       </c>
     </row>
     <row r="82">
@@ -2127,10 +2127,10 @@
         <v>40339</v>
       </c>
       <c r="D82" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E82" t="n">
-        <v>76657</v>
+        <v>75643</v>
       </c>
     </row>
     <row r="83">
@@ -2144,10 +2144,10 @@
         <v>82461</v>
       </c>
       <c r="D83" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E83" t="n">
-        <v>118779</v>
+        <v>117765</v>
       </c>
     </row>
     <row r="84">
@@ -2161,10 +2161,10 @@
         <v>103931</v>
       </c>
       <c r="D84" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E84" t="n">
-        <v>140249</v>
+        <v>139235</v>
       </c>
     </row>
     <row r="85">
@@ -2178,10 +2178,10 @@
         <v>86710</v>
       </c>
       <c r="D85" t="n">
-        <v>36318</v>
+        <v>35304</v>
       </c>
       <c r="E85" t="n">
-        <v>123028</v>
+        <v>122014</v>
       </c>
     </row>
     <row r="86">
@@ -2195,10 +2195,10 @@
         <v>11044</v>
       </c>
       <c r="D86" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E86" t="n">
-        <v>21643</v>
+        <v>21164</v>
       </c>
     </row>
     <row r="87">
@@ -2212,10 +2212,10 @@
         <v>10601</v>
       </c>
       <c r="D87" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E87" t="n">
-        <v>21200</v>
+        <v>20721</v>
       </c>
     </row>
     <row r="88">
@@ -2229,10 +2229,10 @@
         <v>13475</v>
       </c>
       <c r="D88" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E88" t="n">
-        <v>24074</v>
+        <v>23595</v>
       </c>
     </row>
     <row r="89">
@@ -2246,10 +2246,10 @@
         <v>26939</v>
       </c>
       <c r="D89" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E89" t="n">
-        <v>37538</v>
+        <v>37059</v>
       </c>
     </row>
     <row r="90">
@@ -2263,10 +2263,10 @@
         <v>36127</v>
       </c>
       <c r="D90" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E90" t="n">
-        <v>46726</v>
+        <v>46247</v>
       </c>
     </row>
     <row r="91">
@@ -2280,10 +2280,10 @@
         <v>46701</v>
       </c>
       <c r="D91" t="n">
-        <v>10599</v>
+        <v>10120</v>
       </c>
       <c r="E91" t="n">
-        <v>57300</v>
+        <v>56821</v>
       </c>
     </row>
     <row r="92">
@@ -2297,10 +2297,10 @@
         <v>25653</v>
       </c>
       <c r="D92" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E92" t="n">
-        <v>30322</v>
+        <v>28307</v>
       </c>
     </row>
     <row r="93">
@@ -2314,10 +2314,10 @@
         <v>24352</v>
       </c>
       <c r="D93" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E93" t="n">
-        <v>29021</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="94">
@@ -2331,10 +2331,10 @@
         <v>41626</v>
       </c>
       <c r="D94" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E94" t="n">
-        <v>46295</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="95">
@@ -2348,10 +2348,10 @@
         <v>47491</v>
       </c>
       <c r="D95" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E95" t="n">
-        <v>52160</v>
+        <v>50145</v>
       </c>
     </row>
     <row r="96">
@@ -2365,10 +2365,10 @@
         <v>63401</v>
       </c>
       <c r="D96" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E96" t="n">
-        <v>68070</v>
+        <v>66055</v>
       </c>
     </row>
     <row r="97">
@@ -2382,10 +2382,10 @@
         <v>73643</v>
       </c>
       <c r="D97" t="n">
-        <v>4669</v>
+        <v>2654</v>
       </c>
       <c r="E97" t="n">
-        <v>78312</v>
+        <v>76297</v>
       </c>
     </row>
     <row r="98">
@@ -2399,10 +2399,10 @@
         <v>24653</v>
       </c>
       <c r="D98" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E98" t="n">
-        <v>38725</v>
+        <v>37806</v>
       </c>
     </row>
     <row r="99">
@@ -2416,10 +2416,10 @@
         <v>18916</v>
       </c>
       <c r="D99" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E99" t="n">
-        <v>32988</v>
+        <v>32069</v>
       </c>
     </row>
     <row r="100">
@@ -2433,10 +2433,10 @@
         <v>35732</v>
       </c>
       <c r="D100" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E100" t="n">
-        <v>49804</v>
+        <v>48885</v>
       </c>
     </row>
     <row r="101">
@@ -2450,10 +2450,10 @@
         <v>40168</v>
       </c>
       <c r="D101" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E101" t="n">
-        <v>54240</v>
+        <v>53321</v>
       </c>
     </row>
     <row r="102">
@@ -2467,10 +2467,10 @@
         <v>42576</v>
       </c>
       <c r="D102" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E102" t="n">
-        <v>56648</v>
+        <v>55729</v>
       </c>
     </row>
     <row r="103">
@@ -2484,10 +2484,10 @@
         <v>32605</v>
       </c>
       <c r="D103" t="n">
-        <v>14072</v>
+        <v>13153</v>
       </c>
       <c r="E103" t="n">
-        <v>46677</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
